--- a/txs-autotest/com/zb/testdata/pubapi_swhz_banner.xlsx
+++ b/txs-autotest/com/zb/testdata/pubapi_swhz_banner.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://javaapitest.txslicai.com/operation/launching_transition</t>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://javaapitest.txslicai.com/operation/swhz_banner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,25 +373,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
